--- a/resource/Attivio SearchUI与ES SearchUI对照.xlsx
+++ b/resource/Attivio SearchUI与ES SearchUI对照.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36D324-2478-4F1D-BB29-AE0A7DF5AF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EB2EA5-35BA-4EE1-B748-47C082969A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="1935" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能对照" sheetId="1" r:id="rId1"/>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
